--- a/examples/example_data/cloning/plate_map_test.xlsx
+++ b/examples/example_data/cloning/plate_map_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldbach/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldbach/git/wetlabtools/examples/example_data/cloning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34F97E-BAC3-3344-8C61-0B348BB43277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481287C0-AB85-1644-843F-B28E2E2B9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{30774A5A-101E-0F4E-A541-448FC87E0E6B}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="120">
-  <si>
-    <t>Product Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +47,6 @@
     <t>Well Location</t>
   </si>
   <si>
-    <t>Gene Fragments with adapters</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -233,18 +227,12 @@
     <t>phlsec_fc</t>
   </si>
   <si>
-    <t>Transform</t>
-  </si>
-  <si>
     <t>T7Express</t>
   </si>
   <si>
     <t>HB101</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
     <t>design_1</t>
   </si>
   <si>
@@ -396,6 +384,18 @@
   </si>
   <si>
     <t>design_51</t>
+  </si>
+  <si>
+    <t>BL21</t>
+  </si>
+  <si>
+    <t>NEBstable</t>
+  </si>
+  <si>
+    <t>Transform_2</t>
+  </si>
+  <si>
+    <t>Transform_1</t>
   </si>
 </sst>
 </file>
@@ -784,15 +784,14 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -806,1123 +805,970 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
         <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
         <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
         <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
         <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E97" s="1"/>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
